--- a/sobs - template.xlsx
+++ b/sobs - template.xlsx
@@ -2,29 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Planejamento SG\Documents\Projetos Trabalho\Programa SOB (Execução)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="669"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="669" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="sob11 (6)" sheetId="34" r:id="rId1"/>
-    <sheet name="sob11 (5)" sheetId="33" r:id="rId2"/>
-    <sheet name="sob11 (4)" sheetId="32" r:id="rId3"/>
-    <sheet name="sob11 (3)" sheetId="31" r:id="rId4"/>
-    <sheet name="sob11 (2)" sheetId="30" r:id="rId5"/>
-    <sheet name="sob11" sheetId="24" r:id="rId6"/>
+    <sheet name="1" sheetId="34" r:id="rId1"/>
+    <sheet name="2" sheetId="33" r:id="rId2"/>
+    <sheet name="3" sheetId="32" r:id="rId3"/>
+    <sheet name="4" sheetId="31" r:id="rId4"/>
+    <sheet name="5" sheetId="30" r:id="rId5"/>
+    <sheet name="6" sheetId="24" r:id="rId6"/>
+    <sheet name="7" sheetId="35" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>COMP12</t>
   </si>
@@ -32,43 +33,52 @@
     <t>A3279</t>
   </si>
   <si>
-    <t>081120170900</t>
-  </si>
-  <si>
-    <t>081120170905</t>
-  </si>
-  <si>
-    <t>081120170906</t>
-  </si>
-  <si>
-    <t>081120170911</t>
-  </si>
-  <si>
-    <t>081120170912</t>
-  </si>
-  <si>
-    <t>081120170917</t>
-  </si>
-  <si>
-    <t>081120170918</t>
-  </si>
-  <si>
-    <t>081120170923</t>
-  </si>
-  <si>
-    <t>081120170924</t>
-  </si>
-  <si>
-    <t>081120170929</t>
-  </si>
-  <si>
-    <t>081120170930</t>
-  </si>
-  <si>
-    <t>081120170935</t>
-  </si>
-  <si>
-    <t>07/11/2017</t>
+    <t>0120180600</t>
+  </si>
+  <si>
+    <t>0120180605</t>
+  </si>
+  <si>
+    <t>0120180606</t>
+  </si>
+  <si>
+    <t>0120180611</t>
+  </si>
+  <si>
+    <t>0120180612</t>
+  </si>
+  <si>
+    <t>0120180617</t>
+  </si>
+  <si>
+    <t>0120180618</t>
+  </si>
+  <si>
+    <t>0120180623</t>
+  </si>
+  <si>
+    <t>0120180624</t>
+  </si>
+  <si>
+    <t>0120180629</t>
+  </si>
+  <si>
+    <t>0120180630</t>
+  </si>
+  <si>
+    <t>0120180635</t>
+  </si>
+  <si>
+    <t>0120180636</t>
+  </si>
+  <si>
+    <t>0120180641</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
   </si>
 </sst>
 </file>
@@ -414,37 +424,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <sheetPr codeName="Planilha1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="14" style="1"/>
+    <col min="4" max="5" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -453,40 +468,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <sheetPr codeName="Planilha2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="14" style="1"/>
+    <col min="4" max="5" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -495,39 +513,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <sheetPr codeName="Planilha3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="14" style="1"/>
+    <col min="4" max="5" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -536,39 +557,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <sheetPr codeName="Planilha4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="14" style="1"/>
+    <col min="4" max="5" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -577,39 +601,42 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <sheetPr codeName="Planilha5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="14" style="1"/>
+    <col min="4" max="5" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -618,39 +645,86 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <sheetPr codeName="Planilha6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="14" style="1"/>
+    <col min="4" max="5" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Planilha7"/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="14" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/sobs - template.xlsx
+++ b/sobs - template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="669" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="669"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="34" r:id="rId1"/>
@@ -19,13 +19,16 @@
     <sheet name="5" sheetId="30" r:id="rId5"/>
     <sheet name="6" sheetId="24" r:id="rId6"/>
     <sheet name="7" sheetId="35" r:id="rId7"/>
+    <sheet name="8" sheetId="36" r:id="rId8"/>
+    <sheet name="9" sheetId="37" r:id="rId9"/>
+    <sheet name="10" sheetId="38" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="33">
   <si>
     <t>COMP12</t>
   </si>
@@ -75,20 +78,72 @@
     <t>0120180641</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>02/01/2018</t>
+    <t>SOB</t>
+  </si>
+  <si>
+    <t>Mês/Ano/Hora</t>
+  </si>
+  <si>
+    <t>Baremos</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Turma</t>
+  </si>
+  <si>
+    <t>Encarregado</t>
+  </si>
+  <si>
+    <t>Dia HOJE</t>
+  </si>
+  <si>
+    <t>Data PONTO DE SERVIÇO</t>
+  </si>
+  <si>
+    <t>Energizar SOB?</t>
+  </si>
+  <si>
+    <t>0120180642</t>
+  </si>
+  <si>
+    <t>0120180647</t>
+  </si>
+  <si>
+    <t>0120180648</t>
+  </si>
+  <si>
+    <t>0120180653</t>
+  </si>
+  <si>
+    <t>0120180654</t>
+  </si>
+  <si>
+    <t>0120180659</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -110,16 +165,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,41 +544,163 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="14" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="14" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="14" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -469,42 +710,81 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha2"/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="14" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="14" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -514,41 +794,80 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="14" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="14" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -558,41 +877,80 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha4"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="14" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="14" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -602,41 +960,80 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="14" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="14" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -646,41 +1043,80 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha6"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="14" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="14" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -690,41 +1126,244 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha7"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="14" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="14" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="14" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="14" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
